--- a/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2019-20.xlsx
+++ b/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2019-20.xlsx
@@ -519,17 +519,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>48.5%</t>
+          <t>58.8%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -564,17 +564,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-12.2</t>
         </is>
       </c>
     </row>
@@ -584,17 +584,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>58.8%</t>
+          <t>48.5%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-12.2</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -844,37 +844,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gary Clark</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>68.2%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -909,37 +909,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Gary Clark</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>68.2%</t>
+          <t>54.9%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-4.7</t>
         </is>
       </c>
     </row>
@@ -3249,22 +3249,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Justin Holiday</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>62.4</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -3314,22 +3314,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Justin Holiday</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>-10.0</t>
         </is>
       </c>
     </row>
@@ -3899,22 +3899,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Darius Bazley</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3929,12 +3929,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>34.7%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-15.9</t>
         </is>
       </c>
     </row>
@@ -3964,22 +3964,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Darius Bazley</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3994,12 +3994,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>42.2%</t>
+          <t>34.7%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-15.9</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -4224,22 +4224,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>T.J. Warren</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -4289,22 +4289,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>T.J. Warren</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>-14.5</t>
         </is>
       </c>
     </row>
@@ -4419,42 +4419,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>46.3%</t>
+          <t>39.8%</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>70.3</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -4484,42 +4484,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>39.8%</t>
+          <t>46.3%</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4529,17 +4529,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>70.3</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>-7.2</t>
         </is>
       </c>
     </row>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Mike Muscala</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4759,27 +4759,27 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>64.3%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>11.3</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Mike Muscala</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4824,27 +4824,27 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -5459,32 +5459,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Jarrell Brantley</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>-37.9</t>
         </is>
       </c>
     </row>
@@ -5524,17 +5524,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Victor Oladipo</t>
+          <t>Markelle Fultz</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5544,22 +5544,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>35.6%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-16.1</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -5589,17 +5589,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Markelle Fultz</t>
+          <t>Victor Oladipo</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5609,22 +5609,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>35.6%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-16.1</t>
         </is>
       </c>
     </row>
@@ -5654,32 +5654,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jarrell Brantley</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5699,17 +5699,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-37.9</t>
+          <t>6.2</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Edmond Sumner</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6399,12 +6399,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>46.7%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6414,17 +6414,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-16.1</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -6434,42 +6434,42 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>29.2%</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-11.0</t>
         </is>
       </c>
     </row>
@@ -6564,42 +6564,42 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Edmond Sumner</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>29.2%</t>
+          <t>46.7%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-16.1</t>
         </is>
       </c>
     </row>
@@ -7214,17 +7214,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>James Ennis III</t>
+          <t>Marvin Williams</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7234,22 +7234,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>38.1%</t>
+          <t>38.6%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7259,17 +7259,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-17.2</t>
+          <t>-10.2</t>
         </is>
       </c>
     </row>
@@ -7344,17 +7344,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Marvin Williams</t>
+          <t>James Ennis III</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7364,22 +7364,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>38.6%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7389,17 +7389,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-10.2</t>
+          <t>-17.2</t>
         </is>
       </c>
     </row>
@@ -7669,42 +7669,42 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Emmanuel Mudiay</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>56.3%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-19.5</t>
+          <t>-13.6</t>
         </is>
       </c>
     </row>
@@ -7734,17 +7734,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Brad Wanamaker</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7754,22 +7754,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>7.4</t>
         </is>
       </c>
     </row>
@@ -7864,17 +7864,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -7884,22 +7884,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>42.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>-19.5</t>
         </is>
       </c>
     </row>
@@ -7929,17 +7929,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Emmanuel Mudiay</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -7949,22 +7949,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>56.3%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-13.6</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
@@ -7994,37 +7994,37 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Brad Wanamaker</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.0%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8039,17 +8039,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -8124,22 +8124,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lou Williams</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8149,17 +8149,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>36.3%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8169,17 +8169,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>62.2</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>59.6</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -8189,22 +8189,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Lou Williams</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8214,17 +8214,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>36.3%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -9034,42 +9034,42 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ersan Ilyasova</t>
+          <t>Terence Davis</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9079,17 +9079,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>-9.5</t>
         </is>
       </c>
     </row>
@@ -9099,42 +9099,42 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Ersan Ilyasova</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9144,17 +9144,17 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -9164,17 +9164,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Terence Davis</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -9184,22 +9184,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>27.0%</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9209,17 +9209,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-9.5</t>
+          <t>16.8</t>
         </is>
       </c>
     </row>
@@ -9879,42 +9879,42 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Justin Anderson</t>
+          <t>Josh Reaves</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9924,17 +9924,17 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-18.9</t>
+          <t>-56.5</t>
         </is>
       </c>
     </row>
@@ -10009,42 +10009,42 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Robin Lopez</t>
+          <t>Chris Chiozza</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>39.6</t>
         </is>
       </c>
     </row>
@@ -10074,42 +10074,42 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>Kyle O'Quinn</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-43.6</t>
         </is>
       </c>
     </row>
@@ -10139,32 +10139,32 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Michael Kidd-Gilchrist</t>
+          <t>Robin Lopez</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>13.8</t>
         </is>
       </c>
     </row>
@@ -10204,17 +10204,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Keita Bates-Diop</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -10224,14 +10224,14 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="H152" t="inlineStr">
         <is>
           <t>50.0%</t>
@@ -10254,12 +10254,12 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -10269,62 +10269,62 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Chris Chiozza</t>
+          <t>Michael Kidd-Gilchrist</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>30.8%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>-6.1</t>
         </is>
       </c>
     </row>
@@ -10334,42 +10334,42 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Kyle O'Quinn</t>
+          <t>Keita Bates-Diop</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-43.6</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -10399,42 +10399,42 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Josh Reaves</t>
+          <t>Justin Anderson</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-56.5</t>
+          <t>-18.9</t>
         </is>
       </c>
     </row>
@@ -10594,42 +10594,42 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bol Bol</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-26.5</t>
+          <t>-15.6</t>
         </is>
       </c>
     </row>
@@ -10659,22 +10659,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Terrance Ferguson</t>
+          <t>Bol Bol</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -10689,12 +10689,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>-26.5</t>
         </is>
       </c>
     </row>
@@ -10724,17 +10724,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>Terrance Ferguson</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -10744,22 +10744,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,17 +10769,17 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-15.6</t>
+          <t>17.8</t>
         </is>
       </c>
     </row>
@@ -10854,42 +10854,42 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Hamidou Diallo</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-10.8</t>
+          <t>13.2</t>
         </is>
       </c>
     </row>
@@ -10919,22 +10919,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Donta Hall</t>
+          <t>Hamidou Diallo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -10944,17 +10944,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>-10.8</t>
         </is>
       </c>
     </row>
@@ -10984,17 +10984,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Donta Hall</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -11004,22 +11004,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>6.6</t>
         </is>
       </c>
     </row>
@@ -11114,42 +11114,42 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>28.3%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -11179,22 +11179,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Miye Oni</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -11209,12 +11209,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-50.8</t>
+          <t>7.3</t>
         </is>
       </c>
     </row>
@@ -11244,42 +11244,42 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Miye Oni</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>28.3%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-50.8</t>
         </is>
       </c>
     </row>
@@ -11504,22 +11504,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -11529,12 +11529,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>47.1%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -11554,12 +11554,12 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-32.7</t>
+          <t>-31.5</t>
         </is>
       </c>
     </row>
@@ -11569,22 +11569,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -11594,12 +11594,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>47.1%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -11619,12 +11619,12 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-31.5</t>
+          <t>-32.7</t>
         </is>
       </c>
     </row>
@@ -11894,22 +11894,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Bruno Caboclo</t>
+          <t>Deonte Burton</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -11924,32 +11924,32 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>-55.2</t>
         </is>
       </c>
     </row>
@@ -11959,27 +11959,27 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Tyler Cook</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -11989,12 +11989,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12004,17 +12004,17 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-50.4</t>
         </is>
       </c>
     </row>
@@ -12024,37 +12024,37 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Mike Scott</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -12074,12 +12074,12 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-53.7</t>
+          <t>-62.2</t>
         </is>
       </c>
     </row>
@@ -12089,17 +12089,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DeMarre Carroll</t>
+          <t>Patrick Patterson</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12119,12 +12119,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,17 +12134,17 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-53.8</t>
+          <t>58.3</t>
         </is>
       </c>
     </row>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lance Thomas</t>
+          <t>Alize Johnson</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12174,17 +12174,17 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -12204,12 +12204,12 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-56.3</t>
+          <t>-55.5</t>
         </is>
       </c>
     </row>
@@ -12219,37 +12219,37 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Mike Scott</t>
+          <t>Rayjon Tucker</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -12269,12 +12269,12 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>62.2</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-62.2</t>
+          <t>-47.9</t>
         </is>
       </c>
     </row>
@@ -12284,62 +12284,62 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Norvel Pelle</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>9.3</t>
         </is>
       </c>
     </row>
@@ -12349,42 +12349,42 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Deonte Burton</t>
+          <t>Dion Waiters</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12394,17 +12394,17 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-55.2</t>
+          <t>21.7</t>
         </is>
       </c>
     </row>
@@ -12414,42 +12414,42 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>-53.7</t>
         </is>
       </c>
     </row>
@@ -12544,42 +12544,42 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Alize Johnson</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-55.5</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -12609,27 +12609,27 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Dion Waiters</t>
+          <t>Lance Thomas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -12639,12 +12639,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>30.8%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>21.7</t>
+          <t>-56.3</t>
         </is>
       </c>
     </row>
@@ -12674,12 +12674,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Quinn Cook</t>
+          <t>Norvel Pelle</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -12689,27 +12689,27 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>23.3</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
@@ -12739,17 +12739,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Patrick Patterson</t>
+          <t>DeMarre Carroll</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -12769,32 +12769,32 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>-53.8</t>
         </is>
       </c>
     </row>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -12814,32 +12814,32 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>46.2</t>
         </is>
       </c>
     </row>
@@ -12869,22 +12869,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Bruno Caboclo</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -12919,12 +12919,12 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>38.1</t>
         </is>
       </c>
     </row>
@@ -12934,42 +12934,42 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tyler Cook</t>
+          <t>Quinn Cook</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-50.4</t>
+          <t>23.3</t>
         </is>
       </c>
     </row>
@@ -12999,17 +12999,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Rayjon Tucker</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -13019,22 +13019,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -13044,17 +13044,17 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-47.9</t>
+          <t>-7.0</t>
         </is>
       </c>
     </row>
@@ -13194,42 +13194,42 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Paul Watson</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-53.6</t>
         </is>
       </c>
     </row>
@@ -13324,42 +13324,42 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Paul Watson</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13369,17 +13369,17 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-53.6</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
